--- a/HORARIOS DE AULAS Y LABORATORIOS 08092024 2024-3.xlsx
+++ b/HORARIOS DE AULAS Y LABORATORIOS 08092024 2024-3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Documents\UTFV\TELEMÁTICA\2025-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A373300-83D9-49B8-92D1-49E60B571221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5DA0E8-A2E8-4CFF-AC9D-8D4C2B3297D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="806" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="806" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAI LAB MAC" sheetId="42" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="LAB M202 MAC" sheetId="29" r:id="rId13"/>
     <sheet name="LAB M203 PC" sheetId="30" r:id="rId14"/>
     <sheet name="LAB M204 MAC" sheetId="31" r:id="rId15"/>
-    <sheet name="LABORATORIO BITMAP MAC " sheetId="32" r:id="rId16"/>
+    <sheet name="LABORATORIO BITMAP MAC" sheetId="32" r:id="rId16"/>
     <sheet name="M101" sheetId="47" r:id="rId17"/>
     <sheet name="M103" sheetId="46" r:id="rId18"/>
     <sheet name="M104" sheetId="45" r:id="rId19"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="278">
   <si>
     <t>UNIVERSIDAD TECNOLÓGICA FIDEL VELÁZQUEZ</t>
   </si>
@@ -435,9 +435,6 @@
     <t>Proyecto Integrador I_ IRD301</t>
   </si>
   <si>
-    <t>Modelos Estadísticos* CD300</t>
-  </si>
-  <si>
     <t>Cálculo Integral_ IRD302</t>
   </si>
   <si>
@@ -904,6 +901,9 @@
   </si>
   <si>
     <t>Formación Sociocultural IV DDA401</t>
+  </si>
+  <si>
+    <t>}</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1440,12 +1440,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1522,21 +1536,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1696,8 +1713,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="403767" y="575724"/>
-          <a:ext cx="19113393" cy="1238415"/>
+          <a:off x="403767" y="613824"/>
+          <a:ext cx="19065768" cy="1290802"/>
           <a:chOff x="594261" y="306917"/>
           <a:chExt cx="14324435" cy="1240002"/>
         </a:xfrm>
@@ -1800,8 +1817,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="403767" y="575724"/>
-          <a:ext cx="19034018" cy="1246352"/>
+          <a:off x="403767" y="613824"/>
+          <a:ext cx="19065768" cy="1290802"/>
           <a:chOff x="594261" y="306917"/>
           <a:chExt cx="14324435" cy="1240002"/>
         </a:xfrm>
@@ -1904,8 +1921,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="403767" y="575724"/>
-          <a:ext cx="19113393" cy="1238415"/>
+          <a:off x="403767" y="613824"/>
+          <a:ext cx="19065768" cy="1290802"/>
           <a:chOff x="594261" y="306917"/>
           <a:chExt cx="14324435" cy="1240002"/>
         </a:xfrm>
@@ -2008,8 +2025,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1713454" y="371996"/>
-          <a:ext cx="19336796" cy="1211956"/>
+          <a:off x="1713454" y="391046"/>
+          <a:ext cx="19279646" cy="1283393"/>
           <a:chOff x="594261" y="306917"/>
           <a:chExt cx="14324435" cy="1240002"/>
         </a:xfrm>
@@ -2112,8 +2129,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1713454" y="371996"/>
-          <a:ext cx="19336796" cy="1211956"/>
+          <a:off x="1713454" y="391046"/>
+          <a:ext cx="19279646" cy="1283393"/>
           <a:chOff x="594261" y="306917"/>
           <a:chExt cx="14324435" cy="1240002"/>
         </a:xfrm>
@@ -2216,8 +2233,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1713454" y="371996"/>
-          <a:ext cx="19336796" cy="1211956"/>
+          <a:off x="1713454" y="391046"/>
+          <a:ext cx="19279646" cy="1283393"/>
           <a:chOff x="594261" y="306917"/>
           <a:chExt cx="14324435" cy="1240002"/>
         </a:xfrm>
@@ -2321,7 +2338,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="270417" y="167209"/>
-          <a:ext cx="19113393" cy="1192906"/>
+          <a:ext cx="19065768" cy="1273868"/>
           <a:chOff x="594261" y="306917"/>
           <a:chExt cx="14324435" cy="1240002"/>
         </a:xfrm>
@@ -2424,8 +2441,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="403767" y="575724"/>
-          <a:ext cx="19113393" cy="1238415"/>
+          <a:off x="403767" y="613824"/>
+          <a:ext cx="19065768" cy="1290802"/>
           <a:chOff x="594261" y="306917"/>
           <a:chExt cx="14324435" cy="1240002"/>
         </a:xfrm>
@@ -2528,8 +2545,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="403767" y="575724"/>
-          <a:ext cx="19113393" cy="1238415"/>
+          <a:off x="403767" y="613824"/>
+          <a:ext cx="19065768" cy="1290802"/>
           <a:chOff x="594261" y="306917"/>
           <a:chExt cx="14324435" cy="1240002"/>
         </a:xfrm>
@@ -2632,8 +2649,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="403767" y="575724"/>
-          <a:ext cx="19113393" cy="1238415"/>
+          <a:off x="403767" y="613824"/>
+          <a:ext cx="19065768" cy="1290802"/>
           <a:chOff x="594261" y="306917"/>
           <a:chExt cx="14324435" cy="1240002"/>
         </a:xfrm>
@@ -2840,8 +2857,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="403767" y="575724"/>
-          <a:ext cx="19034018" cy="1246352"/>
+          <a:off x="403767" y="613824"/>
+          <a:ext cx="19065768" cy="1290802"/>
           <a:chOff x="594261" y="306917"/>
           <a:chExt cx="14324435" cy="1240002"/>
         </a:xfrm>
@@ -2944,8 +2961,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1713454" y="371996"/>
-          <a:ext cx="19336796" cy="1211956"/>
+          <a:off x="1713454" y="391046"/>
+          <a:ext cx="19279646" cy="1283393"/>
           <a:chOff x="594261" y="306917"/>
           <a:chExt cx="14324435" cy="1240002"/>
         </a:xfrm>
@@ -3048,8 +3065,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1713454" y="371996"/>
-          <a:ext cx="19336796" cy="1211956"/>
+          <a:off x="1713454" y="391046"/>
+          <a:ext cx="19279646" cy="1283393"/>
           <a:chOff x="594261" y="306917"/>
           <a:chExt cx="14324435" cy="1240002"/>
         </a:xfrm>
@@ -3153,7 +3170,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="270417" y="167209"/>
-          <a:ext cx="19113393" cy="1192906"/>
+          <a:ext cx="19065768" cy="1273868"/>
           <a:chOff x="594261" y="306917"/>
           <a:chExt cx="14324435" cy="1240002"/>
         </a:xfrm>
@@ -3257,7 +3274,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="270417" y="167209"/>
-          <a:ext cx="19113393" cy="1192906"/>
+          <a:ext cx="19065768" cy="1273868"/>
           <a:chOff x="594261" y="306917"/>
           <a:chExt cx="14324435" cy="1240002"/>
         </a:xfrm>
@@ -3361,7 +3378,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="270417" y="167209"/>
-          <a:ext cx="19113393" cy="1192906"/>
+          <a:ext cx="19065768" cy="1273868"/>
           <a:chOff x="594261" y="306917"/>
           <a:chExt cx="14324435" cy="1240002"/>
         </a:xfrm>
@@ -3465,7 +3482,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="270417" y="167209"/>
-          <a:ext cx="19113393" cy="1192906"/>
+          <a:ext cx="19065768" cy="1273868"/>
           <a:chOff x="594261" y="306917"/>
           <a:chExt cx="14324435" cy="1240002"/>
         </a:xfrm>
@@ -3569,7 +3586,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="270417" y="167209"/>
-          <a:ext cx="19113393" cy="1192906"/>
+          <a:ext cx="19065768" cy="1273868"/>
           <a:chOff x="594261" y="306917"/>
           <a:chExt cx="14324435" cy="1240002"/>
         </a:xfrm>
@@ -3673,7 +3690,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="270417" y="167209"/>
-          <a:ext cx="19113393" cy="1192906"/>
+          <a:ext cx="19065768" cy="1273868"/>
           <a:chOff x="594261" y="306917"/>
           <a:chExt cx="14324435" cy="1240002"/>
         </a:xfrm>
@@ -4400,8 +4417,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="403767" y="575724"/>
-          <a:ext cx="19113393" cy="1238415"/>
+          <a:off x="403767" y="613824"/>
+          <a:ext cx="19065768" cy="1290802"/>
           <a:chOff x="594261" y="306917"/>
           <a:chExt cx="14324435" cy="1240002"/>
         </a:xfrm>
@@ -4835,15 +4852,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -4855,46 +4872,46 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Laboratorio</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
       <c r="F9" s="12" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
@@ -4905,15 +4922,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -5028,20 +5045,20 @@
       <c r="A20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="E20" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="38" t="s">
         <v>173</v>
-      </c>
-      <c r="D20" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>174</v>
       </c>
       <c r="G20" s="22"/>
     </row>
@@ -5049,20 +5066,20 @@
       <c r="A21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="E21" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="38" t="s">
         <v>173</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>174</v>
       </c>
       <c r="G21" s="22"/>
     </row>
@@ -5081,11 +5098,11 @@
       <c r="A23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>174</v>
+      <c r="B23" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>173</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -5096,16 +5113,16 @@
       <c r="A24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="39" t="s">
         <v>174</v>
-      </c>
-      <c r="C24" s="59" t="s">
-        <v>175</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="33"/>
-      <c r="F24" s="57" t="s">
-        <v>173</v>
+      <c r="F24" s="37" t="s">
+        <v>172</v>
       </c>
       <c r="G24" s="22"/>
     </row>
@@ -5115,8 +5132,8 @@
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="33"/>
-      <c r="D25" s="59" t="s">
-        <v>176</v>
+      <c r="D25" s="39" t="s">
+        <v>175</v>
       </c>
       <c r="E25" s="33"/>
       <c r="F25" s="21"/>
@@ -5163,26 +5180,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5228,7 +5245,9 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="50" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="50" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:F26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -5263,15 +5282,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -5283,46 +5302,46 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Laboratorio</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
       <c r="F9" s="12" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
@@ -5333,15 +5352,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -5401,15 +5420,15 @@
       <c r="A15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>130</v>
+      <c r="E15" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="22"/>
@@ -5418,15 +5437,15 @@
       <c r="A16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="38" t="s">
         <v>129</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>130</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="22"/>
@@ -5439,8 +5458,8 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
-      <c r="F17" s="33" t="s">
-        <v>260</v>
+      <c r="F17" s="38" t="s">
+        <v>259</v>
       </c>
       <c r="G17" s="22"/>
     </row>
@@ -5448,20 +5467,20 @@
       <c r="A18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="33" t="s">
+      <c r="B18" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="F18" s="33" t="s">
+      <c r="C18" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="63" t="s">
         <v>260</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>259</v>
       </c>
       <c r="G18" s="22"/>
     </row>
@@ -5469,20 +5488,20 @@
       <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="33" t="s">
+      <c r="B19" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="C19" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" s="38" t="s">
         <v>261</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>262</v>
       </c>
       <c r="G19" s="22"/>
     </row>
@@ -5491,17 +5510,17 @@
         <v>15</v>
       </c>
       <c r="B20" s="33"/>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="38" t="s">
         <v>261</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>262</v>
       </c>
       <c r="G20" s="22"/>
     </row>
@@ -5510,15 +5529,15 @@
         <v>16</v>
       </c>
       <c r="B21" s="33"/>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="38" t="s">
         <v>261</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="33" t="s">
-        <v>262</v>
       </c>
       <c r="G21" s="22"/>
     </row>
@@ -5538,15 +5557,15 @@
         <v>18</v>
       </c>
       <c r="B23" s="33"/>
-      <c r="C23" s="33" t="s">
-        <v>228</v>
+      <c r="C23" s="38" t="s">
+        <v>227</v>
       </c>
       <c r="D23" s="33"/>
-      <c r="E23" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>157</v>
+      <c r="E23" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>156</v>
       </c>
       <c r="G23" s="22"/>
     </row>
@@ -5555,15 +5574,15 @@
         <v>19</v>
       </c>
       <c r="B24" s="33"/>
-      <c r="C24" s="33" t="s">
-        <v>228</v>
+      <c r="C24" s="38" t="s">
+        <v>227</v>
       </c>
       <c r="D24" s="33"/>
-      <c r="E24" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>157</v>
+      <c r="E24" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>156</v>
       </c>
       <c r="G24" s="22"/>
     </row>
@@ -5572,15 +5591,15 @@
         <v>20</v>
       </c>
       <c r="B25" s="33"/>
-      <c r="C25" s="33" t="s">
-        <v>228</v>
+      <c r="C25" s="38" t="s">
+        <v>227</v>
       </c>
       <c r="D25" s="33"/>
-      <c r="E25" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>158</v>
+      <c r="E25" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>157</v>
       </c>
       <c r="G25" s="22"/>
     </row>
@@ -5592,8 +5611,8 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
-      <c r="F26" s="33" t="s">
-        <v>158</v>
+      <c r="F26" s="38" t="s">
+        <v>157</v>
       </c>
       <c r="G26" s="22"/>
     </row>
@@ -5627,26 +5646,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5692,7 +5711,9 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="50" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="50" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -5727,15 +5748,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -5747,46 +5768,46 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Laboratorio</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
       <c r="F9" s="12" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
@@ -5797,15 +5818,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -5866,14 +5887,14 @@
         <v>10</v>
       </c>
       <c r="B15" s="33"/>
-      <c r="C15" s="33" t="s">
-        <v>151</v>
+      <c r="C15" s="38" t="s">
+        <v>150</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
-      <c r="G15" s="22" t="s">
-        <v>148</v>
+      <c r="G15" s="63" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" customHeight="1">
@@ -5881,72 +5902,72 @@
         <v>11</v>
       </c>
       <c r="B16" s="33"/>
-      <c r="C16" s="33" t="s">
-        <v>151</v>
+      <c r="C16" s="38" t="s">
+        <v>150</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
-      <c r="G16" s="22" t="s">
-        <v>148</v>
+      <c r="G16" s="63" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>150</v>
+      <c r="B17" s="38" t="s">
+        <v>149</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
-      <c r="G17" s="22" t="s">
-        <v>149</v>
+      <c r="G17" s="63" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="45" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>149</v>
+      <c r="G18" s="63" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="38" t="s">
         <v>150</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>151</v>
       </c>
       <c r="G19" s="22"/>
     </row>
@@ -5954,18 +5975,18 @@
       <c r="A20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" s="33" t="s">
+      <c r="E20" s="37" t="s">
         <v>151</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>150</v>
       </c>
       <c r="G20" s="22"/>
     </row>
@@ -5975,8 +5996,8 @@
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="21" t="s">
-        <v>240</v>
+      <c r="D21" s="37" t="s">
+        <v>239</v>
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="21"/>
@@ -5990,8 +6011,8 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
-      <c r="F22" s="21" t="s">
-        <v>126</v>
+      <c r="F22" s="37" t="s">
+        <v>125</v>
       </c>
       <c r="G22" s="22"/>
     </row>
@@ -5999,16 +6020,16 @@
       <c r="A23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>242</v>
+      <c r="B23" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>241</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="21" t="s">
-        <v>126</v>
+      <c r="F23" s="37" t="s">
+        <v>125</v>
       </c>
       <c r="G23" s="22"/>
     </row>
@@ -6016,16 +6037,16 @@
       <c r="A24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>242</v>
+      <c r="B24" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>241</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="21" t="s">
-        <v>127</v>
+      <c r="F24" s="37" t="s">
+        <v>126</v>
       </c>
       <c r="G24" s="22"/>
     </row>
@@ -6033,16 +6054,16 @@
       <c r="A25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="38" t="s">
         <v>241</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>242</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
-      <c r="F25" s="33" t="s">
-        <v>128</v>
+      <c r="F25" s="38" t="s">
+        <v>127</v>
       </c>
       <c r="G25" s="22"/>
     </row>
@@ -6050,8 +6071,8 @@
       <c r="A26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>241</v>
+      <c r="B26" s="38" t="s">
+        <v>240</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
@@ -6089,26 +6110,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6154,7 +6175,9 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="50" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="50" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -6189,15 +6212,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -6209,46 +6232,46 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Laboratorio</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
       <c r="F9" s="12" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
@@ -6259,15 +6282,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -6305,14 +6328,14 @@
       <c r="A13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>139</v>
+      <c r="D13" s="38" t="s">
+        <v>138</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
@@ -6322,14 +6345,14 @@
       <c r="A14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>139</v>
+      <c r="D14" s="38" t="s">
+        <v>138</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -6339,20 +6362,20 @@
       <c r="A15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="33" t="s">
+      <c r="B15" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="C15" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="33" t="s">
-        <v>140</v>
+      <c r="D15" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>139</v>
       </c>
       <c r="G15" s="22"/>
     </row>
@@ -6360,16 +6383,16 @@
       <c r="A16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>140</v>
+      <c r="B16" s="38" t="s">
+        <v>139</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>140</v>
       </c>
       <c r="G16" s="22"/>
     </row>
@@ -6378,17 +6401,17 @@
         <v>12</v>
       </c>
       <c r="B17" s="33"/>
-      <c r="C17" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>141</v>
+      <c r="C17" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="G17" s="22"/>
     </row>
@@ -6397,17 +6420,17 @@
         <v>13</v>
       </c>
       <c r="B18" s="33"/>
-      <c r="C18" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>141</v>
+      <c r="C18" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>140</v>
       </c>
       <c r="G18" s="22"/>
     </row>
@@ -6415,15 +6438,15 @@
       <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>150</v>
+      <c r="B19" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>149</v>
       </c>
       <c r="D19" s="33"/>
-      <c r="E19" s="33" t="s">
-        <v>262</v>
+      <c r="E19" s="38" t="s">
+        <v>261</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
@@ -6432,13 +6455,13 @@
       <c r="A20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>260</v>
+      <c r="B20" s="38" t="s">
+        <v>259</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
-      <c r="E20" s="21" t="s">
-        <v>262</v>
+      <c r="E20" s="37" t="s">
+        <v>261</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
@@ -6447,13 +6470,13 @@
       <c r="A21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>260</v>
+      <c r="B21" s="38" t="s">
+        <v>259</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
-      <c r="E21" s="21" t="s">
-        <v>262</v>
+      <c r="E21" s="37" t="s">
+        <v>261</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
@@ -6543,26 +6566,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6608,7 +6631,9 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="50" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="50" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:E26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -6643,15 +6668,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -6663,65 +6688,65 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Aula</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="20.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="49" t="str">
+      <c r="F9" s="53" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
         <v xml:space="preserve">Aula: </v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="55" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="55"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -6759,18 +6784,18 @@
       <c r="A13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>181</v>
+      <c r="B13" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>180</v>
       </c>
       <c r="D13" s="21"/>
-      <c r="E13" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>181</v>
+      <c r="E13" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>180</v>
       </c>
       <c r="G13" s="22"/>
     </row>
@@ -6778,8 +6803,8 @@
       <c r="A14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>181</v>
+      <c r="B14" s="37" t="s">
+        <v>180</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -6813,20 +6838,20 @@
       <c r="A17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>182</v>
+      <c r="B17" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>181</v>
       </c>
       <c r="G17" s="22"/>
     </row>
@@ -6836,12 +6861,12 @@
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="21" t="s">
-        <v>182</v>
+      <c r="D18" s="37" t="s">
+        <v>181</v>
       </c>
       <c r="E18" s="21"/>
-      <c r="F18" s="21" t="s">
-        <v>182</v>
+      <c r="F18" s="37" t="s">
+        <v>181</v>
       </c>
       <c r="G18" s="22"/>
     </row>
@@ -6860,17 +6885,17 @@
       <c r="A20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="37" t="s">
         <v>197</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>198</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
@@ -6879,17 +6904,17 @@
       <c r="A21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21" s="40" t="s">
         <v>197</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>198</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
@@ -6909,17 +6934,17 @@
       <c r="A23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>200</v>
+      <c r="B23" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>199</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
@@ -6928,17 +6953,17 @@
       <c r="A24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>200</v>
+      <c r="B24" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>199</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
@@ -6947,17 +6972,17 @@
       <c r="A25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" s="40" t="s">
         <v>199</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>200</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="22"/>
@@ -6966,17 +6991,17 @@
       <c r="A26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>199</v>
+      <c r="B26" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>198</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
@@ -7011,26 +7036,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -7078,7 +7103,9 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="50" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="50" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -7113,15 +7140,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -7133,65 +7160,65 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Aula</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="20.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="49" t="str">
+      <c r="F9" s="53" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
         <v xml:space="preserve">Aula: </v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="55" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="55"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -7273,18 +7300,18 @@
       <c r="A17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>203</v>
+      <c r="B17" s="41" t="s">
+        <v>202</v>
       </c>
       <c r="C17" s="21"/>
-      <c r="D17" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>209</v>
+      <c r="D17" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>208</v>
       </c>
       <c r="G17" s="22"/>
     </row>
@@ -7292,20 +7319,20 @@
       <c r="A18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>209</v>
+      <c r="B18" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>208</v>
       </c>
       <c r="G18" s="22"/>
     </row>
@@ -7313,14 +7340,14 @@
       <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>202</v>
+      <c r="B19" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>201</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -7330,17 +7357,17 @@
       <c r="A20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>225</v>
+      <c r="B20" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>224</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
@@ -7350,12 +7377,12 @@
         <v>16</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="20" t="s">
-        <v>225</v>
+      <c r="C21" s="40" t="s">
+        <v>224</v>
       </c>
       <c r="D21" s="20"/>
-      <c r="E21" s="21" t="s">
-        <v>225</v>
+      <c r="E21" s="37" t="s">
+        <v>224</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="34"/>
@@ -7368,8 +7395,8 @@
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="21" t="s">
-        <v>178</v>
+      <c r="F22" s="37" t="s">
+        <v>177</v>
       </c>
       <c r="G22" s="34"/>
     </row>
@@ -7378,17 +7405,17 @@
         <v>18</v>
       </c>
       <c r="B23" s="20"/>
-      <c r="C23" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>178</v>
+      <c r="C23" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>177</v>
       </c>
       <c r="G23" s="34"/>
     </row>
@@ -7397,17 +7424,17 @@
         <v>19</v>
       </c>
       <c r="B24" s="20"/>
-      <c r="C24" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>178</v>
+      <c r="C24" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>177</v>
       </c>
       <c r="G24" s="34"/>
     </row>
@@ -7463,26 +7490,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -7529,7 +7556,9 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="50" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScale="50" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -7564,15 +7593,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -7584,65 +7613,65 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Aula</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="20.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="49" t="str">
+      <c r="F9" s="53" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
         <v xml:space="preserve">Aula: </v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="55" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="55"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -7746,13 +7775,13 @@
       <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>193</v>
+      <c r="B19" s="37" t="s">
+        <v>192</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="21" t="s">
-        <v>193</v>
+      <c r="E19" s="37" t="s">
+        <v>192</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
@@ -7761,17 +7790,17 @@
       <c r="A20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>193</v>
+      <c r="E20" s="37" t="s">
+        <v>192</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
@@ -7780,18 +7809,16 @@
       <c r="A21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>193</v>
-      </c>
+      <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="22"/>
     </row>
@@ -7810,17 +7837,17 @@
       <c r="A23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="D23" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>196</v>
+      <c r="E23" s="37" t="s">
+        <v>195</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
@@ -7829,17 +7856,17 @@
       <c r="A24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="D24" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>196</v>
+      <c r="E24" s="37" t="s">
+        <v>195</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
@@ -7848,17 +7875,17 @@
       <c r="A25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>196</v>
+      <c r="E25" s="37" t="s">
+        <v>195</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="22"/>
@@ -7867,11 +7894,11 @@
       <c r="A26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="40" t="s">
         <v>194</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>193</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="20"/>
@@ -7882,8 +7909,8 @@
       <c r="A27" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>195</v>
+      <c r="B27" s="62" t="s">
+        <v>194</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="24"/>
@@ -7910,26 +7937,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -7976,7 +8003,9 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="50" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="50" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -7984,7 +8013,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -8011,15 +8042,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -8031,65 +8062,65 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Laboratorio</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="20.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="49" t="str">
+      <c r="F9" s="53" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
         <v xml:space="preserve">Laboratorio: </v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="60" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="48"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -8129,8 +8160,8 @@
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
-      <c r="D13" s="20" t="s">
-        <v>208</v>
+      <c r="D13" s="40" t="s">
+        <v>207</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="20"/>
@@ -8140,16 +8171,16 @@
       <c r="A14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>208</v>
+      <c r="B14" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="C14" s="21"/>
-      <c r="D14" s="21" t="s">
-        <v>208</v>
+      <c r="D14" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="E14" s="21"/>
-      <c r="F14" s="21" t="s">
-        <v>208</v>
+      <c r="F14" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="G14" s="22"/>
     </row>
@@ -8157,16 +8188,16 @@
       <c r="A15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>208</v>
+      <c r="B15" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="C15" s="21"/>
-      <c r="D15" s="21" t="s">
-        <v>208</v>
+      <c r="D15" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="E15" s="21"/>
-      <c r="F15" s="21" t="s">
-        <v>208</v>
+      <c r="F15" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="G15" s="22"/>
     </row>
@@ -8178,8 +8209,8 @@
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="21" t="s">
-        <v>208</v>
+      <c r="F16" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="G16" s="22"/>
     </row>
@@ -8209,8 +8240,8 @@
       <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>188</v>
+      <c r="B19" s="37" t="s">
+        <v>187</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -8222,11 +8253,11 @@
       <c r="A20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>188</v>
+      <c r="B20" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>187</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
@@ -8237,16 +8268,16 @@
       <c r="A21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>188</v>
+      <c r="B21" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>187</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="21" t="s">
-        <v>210</v>
+      <c r="F21" s="37" t="s">
+        <v>209</v>
       </c>
       <c r="G21" s="22"/>
     </row>
@@ -8258,8 +8289,8 @@
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="20" t="s">
-        <v>214</v>
+      <c r="F22" s="40" t="s">
+        <v>213</v>
       </c>
       <c r="G22" s="22"/>
     </row>
@@ -8267,20 +8298,20 @@
       <c r="A23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>214</v>
+      <c r="F23" s="40" t="s">
+        <v>213</v>
       </c>
       <c r="G23" s="22"/>
     </row>
@@ -8288,17 +8319,17 @@
       <c r="A24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="37" t="s">
         <v>189</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>190</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="22"/>
@@ -8307,17 +8338,17 @@
       <c r="A25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="E25" s="40" t="s">
         <v>189</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>190</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="22"/>
@@ -8326,11 +8357,11 @@
       <c r="A26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="40" t="s">
         <v>189</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>188</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="20"/>
@@ -8367,26 +8398,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8468,15 +8499,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -8488,46 +8519,46 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Aula</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
       <c r="F9" s="12" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
@@ -8538,15 +8569,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -8585,16 +8616,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>124</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
@@ -8604,16 +8635,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>124</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
@@ -8627,7 +8658,7 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G15" s="22"/>
     </row>
@@ -8637,13 +8668,13 @@
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G16" s="22"/>
     </row>
@@ -8663,14 +8694,14 @@
         <v>13</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F18" s="33" t="s">
         <v>120</v>
@@ -8682,14 +8713,14 @@
         <v>14</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F19" s="33" t="s">
         <v>120</v>
@@ -8701,15 +8732,15 @@
         <v>15</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="21"/>
       <c r="F20" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G20" s="22"/>
     </row>
@@ -8718,7 +8749,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
@@ -8741,13 +8772,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="21"/>
@@ -8758,13 +8789,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="D24" s="33" t="s">
         <v>264</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>265</v>
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="21"/>
@@ -8775,10 +8806,10 @@
         <v>20</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
@@ -8794,7 +8825,7 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G26" s="22"/>
     </row>
@@ -8807,7 +8838,7 @@
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G27" s="26"/>
     </row>
@@ -8830,26 +8861,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8930,15 +8961,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -8950,46 +8981,46 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Aula</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
       <c r="F9" s="12" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
@@ -9000,15 +9031,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -9050,7 +9081,7 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="22"/>
@@ -9063,11 +9094,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" customHeight="1">
@@ -9079,10 +9110,10 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" customHeight="1">
@@ -9095,7 +9126,7 @@
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
       <c r="G16" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" customHeight="1">
@@ -9106,7 +9137,7 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="22"/>
@@ -9119,11 +9150,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45" customHeight="1">
@@ -9131,20 +9162,20 @@
         <v>14</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="45" customHeight="1">
@@ -9152,19 +9183,19 @@
         <v>15</v>
       </c>
       <c r="B20" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="F20" s="33" t="s">
         <v>218</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>219</v>
       </c>
       <c r="G20" s="22"/>
     </row>
@@ -9173,17 +9204,17 @@
         <v>16</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" s="33" t="s">
         <v>218</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>219</v>
       </c>
       <c r="G21" s="22"/>
     </row>
@@ -9205,7 +9236,7 @@
       <c r="B23" s="33"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
@@ -9218,7 +9249,7 @@
       <c r="B24" s="33"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
@@ -9233,7 +9264,7 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G25" s="22"/>
     </row>
@@ -9246,7 +9277,7 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G26" s="22"/>
     </row>
@@ -9280,26 +9311,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9380,15 +9411,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -9400,46 +9431,46 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Aula</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
       <c r="F9" s="12" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
@@ -9450,15 +9481,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -9497,16 +9528,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>143</v>
-      </c>
       <c r="D13" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="33" t="s">
         <v>142</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>143</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="22"/>
@@ -9516,16 +9547,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>143</v>
-      </c>
       <c r="D14" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>142</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>143</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="22"/>
@@ -9535,19 +9566,19 @@
         <v>10</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G15" s="22"/>
     </row>
@@ -9589,17 +9620,17 @@
         <v>14</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G19" s="22"/>
     </row>
@@ -9608,17 +9639,17 @@
         <v>15</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G20" s="22"/>
     </row>
@@ -9630,10 +9661,10 @@
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G21" s="22"/>
     </row>
@@ -9653,14 +9684,14 @@
         <v>18</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="22"/>
@@ -9670,14 +9701,14 @@
         <v>19</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="22"/>
@@ -9687,11 +9718,11 @@
         <v>20</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E25" s="33"/>
       <c r="F25" s="33"/>
@@ -9702,11 +9733,11 @@
         <v>21</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
@@ -9742,26 +9773,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9844,15 +9875,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -9864,46 +9895,46 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Laboratorio</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
       <c r="F9" s="12" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
@@ -9914,15 +9945,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -9960,17 +9991,17 @@
       <c r="A13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C13" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>223</v>
+      <c r="D13" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>222</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -9979,17 +10010,17 @@
       <c r="A14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="E14" s="38" t="s">
         <v>222</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>223</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -9998,17 +10029,17 @@
       <c r="A15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="38" t="s">
         <v>222</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>223</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -10028,17 +10059,17 @@
       <c r="A17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="D17" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="E17" s="58" t="s">
-        <v>224</v>
+      <c r="B17" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>223</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="22"/>
@@ -10047,17 +10078,17 @@
       <c r="A18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>224</v>
+      <c r="B18" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>223</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="22"/>
@@ -10066,17 +10097,17 @@
       <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" s="38" t="s">
         <v>204</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>205</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="22"/>
@@ -10085,17 +10116,17 @@
       <c r="A20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="C20" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="37" t="s">
         <v>204</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>205</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="22"/>
@@ -10104,20 +10135,20 @@
       <c r="A21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="D21" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" s="38" t="s">
         <v>205</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>206</v>
       </c>
       <c r="G21" s="22"/>
     </row>
@@ -10129,8 +10160,8 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
-      <c r="F22" s="58" t="s">
-        <v>206</v>
+      <c r="F22" s="38" t="s">
+        <v>205</v>
       </c>
       <c r="G22" s="22"/>
     </row>
@@ -10138,16 +10169,16 @@
       <c r="A23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>206</v>
+      <c r="B23" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>205</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
-      <c r="F23" s="58" t="s">
-        <v>206</v>
+      <c r="F23" s="38" t="s">
+        <v>205</v>
       </c>
       <c r="G23" s="22"/>
     </row>
@@ -10155,16 +10186,16 @@
       <c r="A24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>206</v>
+      <c r="B24" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>205</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
-      <c r="F24" s="58" t="s">
-        <v>207</v>
+      <c r="F24" s="38" t="s">
+        <v>206</v>
       </c>
       <c r="G24" s="22"/>
     </row>
@@ -10172,16 +10203,16 @@
       <c r="A25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>206</v>
+      <c r="B25" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>205</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
-      <c r="F25" s="58" t="s">
-        <v>207</v>
+      <c r="F25" s="38" t="s">
+        <v>206</v>
       </c>
       <c r="G25" s="22"/>
     </row>
@@ -10226,26 +10257,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10326,15 +10357,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -10346,46 +10377,46 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Aula</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
       <c r="F9" s="12" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
@@ -10396,15 +10427,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -10622,26 +10653,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10725,15 +10756,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -10745,65 +10776,65 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Aula</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="20.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="49" t="str">
+      <c r="F9" s="53" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
         <v xml:space="preserve">Aula: </v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="55" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="55"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -10897,10 +10928,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -10911,19 +10942,19 @@
         <v>14</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E19" s="21" t="s">
+      <c r="F19" s="21" t="s">
         <v>161</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>162</v>
       </c>
       <c r="G19" s="22"/>
     </row>
@@ -10932,17 +10963,17 @@
         <v>15</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G20" s="22"/>
     </row>
@@ -10952,16 +10983,16 @@
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>163</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>164</v>
       </c>
       <c r="G21" s="22"/>
     </row>
@@ -10981,11 +11012,11 @@
         <v>18</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="20"/>
@@ -10996,7 +11027,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="21"/>
@@ -11009,11 +11040,11 @@
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="22"/>
@@ -11059,26 +11090,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11161,15 +11192,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -11181,65 +11212,65 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Aula</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="20.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="49" t="str">
+      <c r="F9" s="53" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
         <v xml:space="preserve">Aula: </v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="55" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="55"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -11290,11 +11321,11 @@
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
@@ -11305,11 +11336,11 @@
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="22"/>
@@ -11331,10 +11362,10 @@
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="23"/>
@@ -11345,17 +11376,17 @@
         <v>13</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G18" s="22"/>
     </row>
@@ -11366,10 +11397,10 @@
       <c r="B19" s="21"/>
       <c r="C19" s="27"/>
       <c r="D19" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>171</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>172</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
@@ -11381,7 +11412,7 @@
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -11483,26 +11514,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11588,15 +11619,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -11608,65 +11639,65 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Aula</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="20.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="49" t="str">
+      <c r="F9" s="53" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
         <v xml:space="preserve">Aula: </v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="55" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="55"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -11717,11 +11748,11 @@
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="29"/>
@@ -11732,14 +11763,14 @@
       </c>
       <c r="B15" s="28"/>
       <c r="C15" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G15" s="29"/>
     </row>
@@ -11772,7 +11803,7 @@
       <c r="B18" s="28"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="20"/>
@@ -11785,11 +11816,11 @@
       <c r="B19" s="31"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G19" s="29"/>
     </row>
@@ -11798,17 +11829,17 @@
         <v>15</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G20" s="29"/>
     </row>
@@ -11817,13 +11848,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="30"/>
       <c r="F21" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G21" s="29"/>
     </row>
@@ -11843,7 +11874,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -11856,7 +11887,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -11869,7 +11900,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -11882,7 +11913,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
@@ -11920,26 +11951,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12021,15 +12052,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -12041,65 +12072,65 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Aula</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="20.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="49" t="str">
+      <c r="F9" s="53" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
         <v xml:space="preserve">Aula: </v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="55" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="55"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -12204,19 +12235,19 @@
         <v>14</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G19" s="22"/>
     </row>
@@ -12225,19 +12256,19 @@
         <v>15</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G20" s="22"/>
     </row>
@@ -12246,17 +12277,17 @@
         <v>16</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G21" s="22"/>
     </row>
@@ -12276,12 +12307,12 @@
         <v>18</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="22"/>
@@ -12291,12 +12322,12 @@
         <v>19</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="22"/>
@@ -12306,13 +12337,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G25" s="22"/>
     </row>
@@ -12321,7 +12352,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="20"/>
@@ -12359,26 +12390,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12460,15 +12491,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -12480,64 +12511,64 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Aula</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="20.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="55" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="55"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -12620,19 +12651,19 @@
         <v>12</v>
       </c>
       <c r="B17" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>249</v>
-      </c>
       <c r="E17" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G17" s="22"/>
     </row>
@@ -12641,19 +12672,19 @@
         <v>13</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>249</v>
-      </c>
       <c r="E18" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G18" s="22"/>
     </row>
@@ -12662,19 +12693,19 @@
         <v>14</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G19" s="22"/>
     </row>
@@ -12683,19 +12714,19 @@
         <v>15</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D20" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>255</v>
-      </c>
       <c r="F20" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G20" s="22"/>
     </row>
@@ -12704,19 +12735,19 @@
         <v>16</v>
       </c>
       <c r="B21" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>252</v>
-      </c>
       <c r="D21" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>255</v>
-      </c>
       <c r="F21" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G21" s="22"/>
     </row>
@@ -12729,7 +12760,7 @@
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G22" s="22"/>
     </row>
@@ -12738,19 +12769,19 @@
         <v>18</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E23" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F23" s="21" t="s">
         <v>254</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>255</v>
       </c>
       <c r="G23" s="22"/>
     </row>
@@ -12759,16 +12790,16 @@
         <v>19</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
@@ -12778,16 +12809,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C25" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>251</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>252</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="22"/>
@@ -12833,26 +12864,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12933,15 +12964,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -12953,65 +12984,65 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Aula</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="20.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="49" t="str">
+      <c r="F9" s="53" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
         <v xml:space="preserve">Aula: </v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="55" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="55"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -13117,10 +13148,10 @@
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="21"/>
@@ -13133,7 +13164,7 @@
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="21"/>
@@ -13146,7 +13177,7 @@
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="20"/>
@@ -13237,26 +13268,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -13338,15 +13369,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -13358,65 +13389,65 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Aula</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="20.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="49" t="str">
+      <c r="F9" s="53" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
         <v xml:space="preserve">Aula: </v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="55" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="55"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -13457,12 +13488,12 @@
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
       <c r="D13" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" customHeight="1">
@@ -13472,12 +13503,12 @@
       <c r="B14" s="20"/>
       <c r="C14" s="23"/>
       <c r="D14" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="20"/>
       <c r="G14" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" customHeight="1">
@@ -13487,11 +13518,11 @@
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
       <c r="D15" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G15" s="22"/>
     </row>
@@ -13512,14 +13543,14 @@
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>270</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>271</v>
       </c>
       <c r="G17" s="22"/>
     </row>
@@ -13529,14 +13560,14 @@
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>270</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>271</v>
       </c>
       <c r="G18" s="22"/>
     </row>
@@ -13545,19 +13576,19 @@
         <v>14</v>
       </c>
       <c r="B19" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="D19" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>271</v>
-      </c>
       <c r="F19" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G19" s="22"/>
     </row>
@@ -13566,19 +13597,19 @@
         <v>15</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G20" s="22"/>
     </row>
@@ -13588,11 +13619,11 @@
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
@@ -13684,26 +13715,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -13787,15 +13818,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -13807,65 +13838,65 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Aula</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="20.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="49" t="str">
+      <c r="F9" s="53" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
         <v xml:space="preserve">Aula: </v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="55" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="55"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -13918,7 +13949,7 @@
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="22"/>
@@ -13929,11 +13960,11 @@
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="22"/>
@@ -13955,11 +13986,11 @@
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="22"/>
@@ -13970,11 +14001,11 @@
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="22"/>
@@ -13985,11 +14016,11 @@
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="22"/>
@@ -13999,14 +14030,14 @@
         <v>15</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="22"/>
@@ -14107,26 +14138,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -15015,15 +15046,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -15035,46 +15066,46 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Aula</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
       <c r="F9" s="12" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
@@ -15085,15 +15116,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -15131,15 +15162,15 @@
       <c r="A13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="58" t="s">
-        <v>170</v>
+      <c r="B13" s="38" t="s">
+        <v>169</v>
       </c>
       <c r="C13" s="33"/>
-      <c r="D13" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>170</v>
+      <c r="D13" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>169</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="22"/>
@@ -15148,15 +15179,15 @@
       <c r="A14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>170</v>
+      <c r="B14" s="37" t="s">
+        <v>169</v>
       </c>
       <c r="C14" s="33"/>
-      <c r="D14" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>168</v>
+      <c r="D14" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>167</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="22"/>
@@ -15165,15 +15196,15 @@
       <c r="A15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>168</v>
+      <c r="B15" s="37" t="s">
+        <v>167</v>
       </c>
       <c r="C15" s="33"/>
-      <c r="D15" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>168</v>
+      <c r="D15" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>167</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="22"/>
@@ -15182,11 +15213,11 @@
       <c r="A16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
       <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" ht="45" customHeight="1">
@@ -15216,15 +15247,15 @@
         <v>14</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="57" t="s">
-        <v>168</v>
+      <c r="F19" s="37" t="s">
+        <v>167</v>
       </c>
       <c r="G19" s="22"/>
     </row>
@@ -15233,12 +15264,12 @@
         <v>15</v>
       </c>
       <c r="B20" s="33"/>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="38" t="s">
         <v>168</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="58" t="s">
-        <v>169</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="22"/>
@@ -15339,26 +15370,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -15731,15 +15762,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -15751,46 +15782,46 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Aula</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
       <c r="F9" s="12" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
@@ -15801,15 +15832,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -16027,26 +16058,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -16129,15 +16160,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -16149,46 +16180,46 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Aula</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
       <c r="F9" s="12" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
@@ -16199,15 +16230,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -16257,14 +16288,14 @@
         <v>9</v>
       </c>
       <c r="B14" s="33"/>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="D14" s="57" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>236</v>
+      <c r="E14" s="38" t="s">
+        <v>235</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="22"/>
@@ -16273,20 +16304,20 @@
       <c r="A15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="F15" s="38" t="s">
         <v>235</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>236</v>
       </c>
       <c r="G15" s="22"/>
     </row>
@@ -16441,26 +16472,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -16543,15 +16574,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -16563,46 +16594,46 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Aula</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
       <c r="F9" s="12" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
@@ -16613,15 +16644,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -16671,15 +16702,15 @@
         <v>9</v>
       </c>
       <c r="B14" s="33"/>
-      <c r="C14" s="57" t="s">
-        <v>275</v>
+      <c r="C14" s="37" t="s">
+        <v>274</v>
       </c>
       <c r="D14" s="33"/>
-      <c r="E14" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>277</v>
+      <c r="E14" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>276</v>
       </c>
       <c r="G14" s="22"/>
     </row>
@@ -16688,15 +16719,15 @@
         <v>10</v>
       </c>
       <c r="B15" s="33"/>
-      <c r="C15" s="57" t="s">
-        <v>275</v>
+      <c r="C15" s="37" t="s">
+        <v>274</v>
       </c>
       <c r="D15" s="33"/>
-      <c r="E15" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>277</v>
+      <c r="E15" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>276</v>
       </c>
       <c r="G15" s="22"/>
     </row>
@@ -16708,8 +16739,8 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
-      <c r="F16" s="58" t="s">
-        <v>277</v>
+      <c r="F16" s="38" t="s">
+        <v>276</v>
       </c>
       <c r="G16" s="22"/>
     </row>
@@ -16717,12 +16748,12 @@
       <c r="A17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="57" t="s">
-        <v>273</v>
+      <c r="B17" s="37" t="s">
+        <v>272</v>
       </c>
       <c r="C17" s="33"/>
-      <c r="D17" s="58" t="s">
-        <v>273</v>
+      <c r="D17" s="38" t="s">
+        <v>272</v>
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
@@ -16732,20 +16763,20 @@
       <c r="A18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="57" t="s">
-        <v>273</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>276</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>273</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>276</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>276</v>
+      <c r="B18" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>275</v>
       </c>
       <c r="G18" s="22"/>
     </row>
@@ -16753,20 +16784,20 @@
       <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="C19" s="58" t="s">
-        <v>276</v>
-      </c>
-      <c r="D19" s="57" t="s">
-        <v>275</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>274</v>
+      <c r="E19" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>273</v>
       </c>
       <c r="G19" s="22"/>
     </row>
@@ -16877,26 +16908,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -16979,15 +17010,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -16999,65 +17030,65 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Laboratorio</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="20.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="49" t="str">
+      <c r="F9" s="53" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
         <v xml:space="preserve">Laboratorio: </v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="55" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="52"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -17095,12 +17126,12 @@
       <c r="A13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>201</v>
+      <c r="B13" s="37" t="s">
+        <v>200</v>
       </c>
       <c r="C13" s="20"/>
-      <c r="D13" s="60" t="s">
-        <v>201</v>
+      <c r="D13" s="40" t="s">
+        <v>200</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="20"/>
@@ -17110,12 +17141,12 @@
       <c r="A14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="60" t="s">
-        <v>201</v>
+      <c r="B14" s="40" t="s">
+        <v>200</v>
       </c>
       <c r="C14" s="20"/>
-      <c r="D14" s="60" t="s">
-        <v>201</v>
+      <c r="D14" s="40" t="s">
+        <v>200</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="20"/>
@@ -17125,12 +17156,12 @@
       <c r="A15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>201</v>
+      <c r="B15" s="37" t="s">
+        <v>200</v>
       </c>
       <c r="C15" s="21"/>
-      <c r="D15" s="57" t="s">
-        <v>201</v>
+      <c r="D15" s="37" t="s">
+        <v>200</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -17151,16 +17182,16 @@
       <c r="A17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>184</v>
+      <c r="B17" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>183</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="57" t="s">
-        <v>202</v>
+      <c r="F17" s="37" t="s">
+        <v>201</v>
       </c>
       <c r="G17" s="22"/>
     </row>
@@ -17168,20 +17199,20 @@
       <c r="A18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="E18" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="F18" s="57" t="s">
-        <v>202</v>
+      <c r="E18" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>201</v>
       </c>
       <c r="G18" s="22"/>
     </row>
@@ -17189,20 +17220,20 @@
       <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" s="57" t="s">
+      <c r="B19" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="D19" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="E19" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="F19" s="57" t="s">
-        <v>203</v>
+      <c r="C19" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>202</v>
       </c>
       <c r="G19" s="22"/>
     </row>
@@ -17210,18 +17241,18 @@
       <c r="A20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="60" t="s">
-        <v>185</v>
+      <c r="B20" s="40" t="s">
+        <v>184</v>
       </c>
       <c r="C20" s="21"/>
-      <c r="D20" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" s="57" t="s">
-        <v>203</v>
+      <c r="D20" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>202</v>
       </c>
       <c r="G20" s="22"/>
     </row>
@@ -17230,8 +17261,8 @@
         <v>16</v>
       </c>
       <c r="B21" s="20"/>
-      <c r="C21" s="57" t="s">
-        <v>216</v>
+      <c r="C21" s="37" t="s">
+        <v>215</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
@@ -17246,8 +17277,8 @@
       <c r="C22" s="21"/>
       <c r="D22" s="20"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="57" t="s">
-        <v>241</v>
+      <c r="F22" s="37" t="s">
+        <v>240</v>
       </c>
       <c r="G22" s="22"/>
     </row>
@@ -17256,17 +17287,17 @@
         <v>18</v>
       </c>
       <c r="B23" s="20"/>
-      <c r="C23" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="D23" s="60" t="s">
-        <v>217</v>
-      </c>
-      <c r="E23" s="57" t="s">
+      <c r="C23" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="F23" s="57" t="s">
-        <v>241</v>
+      <c r="D23" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>240</v>
       </c>
       <c r="G23" s="22"/>
     </row>
@@ -17275,15 +17306,15 @@
         <v>19</v>
       </c>
       <c r="B24" s="20"/>
-      <c r="C24" s="57" t="s">
-        <v>217</v>
+      <c r="C24" s="37" t="s">
+        <v>216</v>
       </c>
       <c r="D24" s="20"/>
-      <c r="E24" s="57" t="s">
-        <v>216</v>
-      </c>
-      <c r="F24" s="57" t="s">
-        <v>240</v>
+      <c r="E24" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>239</v>
       </c>
       <c r="G24" s="22"/>
     </row>
@@ -17306,8 +17337,8 @@
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="57" t="s">
-        <v>234</v>
+      <c r="F26" s="37" t="s">
+        <v>233</v>
       </c>
       <c r="G26" s="22"/>
     </row>
@@ -17341,26 +17372,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -17407,8 +17438,8 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="50" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C15"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScale="50" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17444,15 +17475,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -17464,65 +17495,65 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Laboratorio</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="20.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="49" t="str">
+      <c r="F9" s="53" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
         <v xml:space="preserve">Laboratorio: </v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="57" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -17560,14 +17591,14 @@
       <c r="A13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="D13" s="37" t="s">
         <v>185</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>186</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="20"/>
@@ -17577,14 +17608,14 @@
       <c r="A14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="D14" s="37" t="s">
         <v>185</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>186</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="20"/>
@@ -17594,14 +17625,14 @@
       <c r="A15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="D15" s="37" t="s">
         <v>185</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>186</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="21"/>
@@ -17633,15 +17664,15 @@
       <c r="A18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>177</v>
+      <c r="B18" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>176</v>
       </c>
       <c r="D18" s="21"/>
-      <c r="E18" s="21" t="s">
-        <v>177</v>
+      <c r="E18" s="37" t="s">
+        <v>176</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="22"/>
@@ -17650,18 +17681,18 @@
       <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>177</v>
+      <c r="B19" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>176</v>
       </c>
       <c r="D19" s="21"/>
-      <c r="E19" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>177</v>
+      <c r="E19" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>176</v>
       </c>
       <c r="G19" s="22"/>
     </row>
@@ -17671,14 +17702,14 @@
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="F20" s="23" t="s">
+      <c r="D20" s="37" t="s">
         <v>177</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>176</v>
       </c>
       <c r="G20" s="22"/>
     </row>
@@ -17687,11 +17718,11 @@
         <v>16</v>
       </c>
       <c r="B21" s="20"/>
-      <c r="C21" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>178</v>
+      <c r="C21" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>177</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -17705,8 +17736,8 @@
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="20" t="s">
-        <v>135</v>
+      <c r="F22" s="40" t="s">
+        <v>134</v>
       </c>
       <c r="G22" s="22"/>
     </row>
@@ -17715,13 +17746,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="21" t="s">
-        <v>178</v>
+      <c r="C23" s="37" t="s">
+        <v>177</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="20" t="s">
-        <v>135</v>
+      <c r="F23" s="40" t="s">
+        <v>134</v>
       </c>
       <c r="G23" s="22"/>
     </row>
@@ -17730,13 +17761,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="21"/>
-      <c r="C24" s="20" t="s">
-        <v>178</v>
+      <c r="C24" s="40" t="s">
+        <v>177</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="20" t="s">
-        <v>136</v>
+      <c r="F24" s="40" t="s">
+        <v>135</v>
       </c>
       <c r="G24" s="22"/>
     </row>
@@ -17748,8 +17779,8 @@
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="20" t="s">
-        <v>136</v>
+      <c r="F25" s="40" t="s">
+        <v>135</v>
       </c>
       <c r="G25" s="22"/>
     </row>
@@ -17759,11 +17790,11 @@
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>137</v>
+      <c r="E26" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>136</v>
       </c>
       <c r="G26" s="22"/>
     </row>
@@ -17774,11 +17805,11 @@
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
-      <c r="E27" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>137</v>
+      <c r="E27" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>136</v>
       </c>
       <c r="G27" s="26"/>
     </row>
@@ -17801,26 +17832,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -17867,7 +17898,9 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="50" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScale="50" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -17902,15 +17935,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="3"/>
@@ -17922,46 +17955,46 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="46" t="str">
         <f>CONCATENATE("Horario de ", INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)))</f>
         <v>Horario de Laboratorio</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
       <c r="F9" s="12" t="str">
         <f>CONCATENATE(INDEX(CONCENTRADO!D2:D109, MATCH(G9, CONCENTRADO!C2:C109, 0)), ": ")</f>
@@ -17972,15 +18005,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="4"/>
@@ -18023,7 +18056,7 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="63" t="s">
         <v>118</v>
       </c>
     </row>
@@ -18036,7 +18069,7 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="63" t="s">
         <v>118</v>
       </c>
     </row>
@@ -18049,7 +18082,7 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="63" t="s">
         <v>118</v>
       </c>
     </row>
@@ -18058,7 +18091,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
@@ -18068,18 +18101,18 @@
       <c r="A17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33" t="s">
-        <v>215</v>
+      <c r="B17" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="64"/>
+      <c r="D17" s="38" t="s">
+        <v>214</v>
       </c>
       <c r="E17" s="33"/>
-      <c r="F17" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="G17" s="22" t="s">
+      <c r="F17" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="63" t="s">
         <v>119</v>
       </c>
     </row>
@@ -18087,20 +18120,18 @@
       <c r="A18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>215</v>
+      <c r="B18" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="38" t="s">
+        <v>214</v>
       </c>
       <c r="E18" s="33"/>
-      <c r="F18" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="G18" s="22" t="s">
+      <c r="F18" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="G18" s="63" t="s">
         <v>119</v>
       </c>
     </row>
@@ -18109,19 +18140,17 @@
         <v>14</v>
       </c>
       <c r="B19" s="33"/>
-      <c r="C19" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="64"/>
+      <c r="D19" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="33" t="s">
+      <c r="E19" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="F19" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="63" t="s">
         <v>119</v>
       </c>
     </row>
@@ -18130,14 +18159,14 @@
         <v>15</v>
       </c>
       <c r="B20" s="33"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21" t="s">
+      <c r="C20" s="65"/>
+      <c r="D20" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="38" t="s">
         <v>115</v>
       </c>
       <c r="G20" s="22"/>
@@ -18161,7 +18190,7 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="37" t="s">
         <v>116</v>
       </c>
       <c r="G22" s="22"/>
@@ -18172,13 +18201,13 @@
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="37" t="s">
         <v>116</v>
       </c>
       <c r="G23" s="22"/>
@@ -18189,13 +18218,13 @@
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="37" t="s">
         <v>117</v>
       </c>
       <c r="G24" s="22"/>
@@ -18208,7 +18237,7 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="38" t="s">
         <v>117</v>
       </c>
       <c r="G25" s="22"/>
@@ -18254,26 +18283,26 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="20.25">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="20.25">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="9">
